--- a/2017/03_DetailDesign/20171011_Cong viec/OOF2113_Cap nhat cong viec hang loat.xlsx
+++ b/2017/03_DetailDesign/20171011_Cong viec/OOF2113_Cap nhat cong viec hang loat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_SVN\SVN_ERP90\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\09.KIMYEN\20171011_Cong viec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\ERP90\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\09.KIMYEN\20170921_Phrase 3_Quan ly cong viec\20171011_Cong viec\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{001CCED4-9CCA-4252-A54C-09253C41EA73}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -94,17 +95,17 @@
     <definedName name="項目No">#REF!</definedName>
     <definedName name="項目名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -235,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -311,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -340,12 +341,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -387,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -472,13 +473,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Le Thi Thu Hien</author>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -492,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1" shapeId="0">
+    <comment ref="E4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -505,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -518,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1" shapeId="0">
+    <comment ref="G4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -531,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0">
+    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -557,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0">
+    <comment ref="I4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -574,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0">
+    <comment ref="J4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -587,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -601,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="1" shapeId="0">
+    <comment ref="L4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -693,7 +694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="1" shapeId="0">
+    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -728,7 +729,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -744,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="1" shapeId="0">
+    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -763,12 +764,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -781,10 +782,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text/>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -797,7 +798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -819,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -837,12 +838,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>binhminh</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -855,7 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -868,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -886,13 +887,13 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -909,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -924,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -942,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -956,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -970,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -984,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="1" shapeId="0">
+    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1013,13 +1014,13 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
     <author>binhminh</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1074,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1126,7 +1127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="1" shapeId="0">
+    <comment ref="A5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1163,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0">
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1176,7 +1177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1" shapeId="0">
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="1" shapeId="0">
+    <comment ref="B12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="1" shapeId="0">
+    <comment ref="B24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1216,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="1" shapeId="0">
+    <comment ref="A27" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1236,13 +1237,13 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
     <author>binhminh</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1256,7 +1257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1284,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1297,7 +1298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1311,7 +1312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1325,7 +1326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1349,7 +1350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1373,7 +1374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="1" shapeId="0">
+    <comment ref="A5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1386,7 +1387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0">
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2174,9 +2175,6 @@
     </r>
   </si>
   <si>
-    <t>ASOFT-TM</t>
-  </si>
-  <si>
     <t>Mã công việc</t>
   </si>
   <si>
@@ -2219,22 +2217,11 @@
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>TMF2023</t>
-  </si>
-  <si>
     <t>Cập nhật công việc hàng loạt</t>
-  </si>
-  <si>
-    <t>Login TM-&gt; Nghiệp vụ-&gt; Công việc
-(Dạng danh sách) -&gt; Chọn vào button [Sửa hàng loạt]
- -&gt; Cập nhật công việc hàng loạt_TMF2023</t>
   </si>
   <si>
     <t>Sử dụng màn hình này để:
 Cho phép người dùng chỉnh sửa nhiều công việc cùng một lúc</t>
-  </si>
-  <si>
-    <t>TMF2023_Cập nhật công việc hàng loạt</t>
   </si>
   <si>
     <t>Quy trình</t>
@@ -2428,9 +2415,6 @@
   </si>
   <si>
     <t>Load danh sách lưới</t>
-  </si>
-  <si>
-    <t>Sự kiện các ControlName trên màn hình TMF2023_Cập nhật công việc hàng loạt:</t>
   </si>
   <si>
     <r>
@@ -2720,6 +2704,173 @@
     <t>btnChooseAssignedToUserName</t>
   </si>
   <si>
+    <t>Công việc cha (Chọn)</t>
+  </si>
+  <si>
+    <t>Công việc cha (Xóa)</t>
+  </si>
+  <si>
+    <t>PriviousWorkID</t>
+  </si>
+  <si>
+    <t>Công việc trước (Chọn)</t>
+  </si>
+  <si>
+    <t>btnChoosePriviousWorkID</t>
+  </si>
+  <si>
+    <t>Công việc trước (Xóa)</t>
+  </si>
+  <si>
+    <t>btnDeletePriviousWorkID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Luồng 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Sự kiện xóa [Công việc trước]: btnDeletePriviousWorkID
+               - Sẽ clear giá trị của textbox PriviousWorkID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Luồng 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Sự kiện xóa [Công việc cha]: btnDeleteParentWorkName
+               - Sẽ clear giá trị của textbox ParentWorkID</t>
+    </r>
+  </si>
+  <si>
+    <t>btnChooseParentWorkID</t>
+  </si>
+  <si>
+    <t>btnDeleteParentWorkID</t>
+  </si>
+  <si>
+    <t>SQL combo trên tool BA</t>
+  </si>
+  <si>
+    <t>SQL_CMN_000055</t>
+  </si>
+  <si>
+    <t>SQL_CMN_000053</t>
+  </si>
+  <si>
+    <t>SQL_CMN_000056</t>
+  </si>
+  <si>
+    <t>SQL_CMN_000054</t>
+  </si>
+  <si>
+    <t>SQL_CMN_000052</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sau khi Sửa thành công ở luồng 4 và 5  thì Xử lý tab lịch sử theo chuẩn (Tham khảo tài liệu phân tích chi tiết lịch sử) Với @RelatedToTypeID = 48</t>
+  </si>
+  <si>
+    <t>OOF2113</t>
+  </si>
+  <si>
+    <t>Login TM-&gt; Nghiệp vụ-&gt; Công việc
+(Dạng danh sách) -&gt; Chọn vào button [Sửa hàng loạt]
+ -&gt; Cập nhật công việc hàng loạt_OOF2113</t>
+  </si>
+  <si>
+    <t>OOF2113_Cập nhật công việc hàng loạt</t>
+  </si>
+  <si>
+    <t>Sự kiện các ControlName trên màn hình OOF2113_Cập nhật công việc hàng loạt:</t>
+  </si>
+  <si>
+    <t>ASOFT-OO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEC OOP2113 ( 
+ @DivisionID nvarchar(250), 
+ @ProjectID nvarchar(250),
+ @ProcessID nvarchar(250),
+ @StepID nvarchar(250),
+ @StatusID nvarchar(250),
+ @ConditionWorkID  NVARCHAR (MAX), 
+ @UserID  nvarchar(250) 
+   ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEC OOP2111 ( 
+ @DivisionID varchar(50),
+ @APK NVARCHAR(MAX),
+ @APKList NVARCHAR(MAX),
+ @TableID NVARCHAR(MAX), --OOT2110
+ @Mode tinyint,   --0: Sửa, 1: Xóa
+ @UserID Varchar(50)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biến môi trường
+ @APK 
+ NULL
+ "OOT2110" 
+0
+ Biến môi trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Top 1 1 
+From OOT2110 M With (NOLOCK)
+Where M.WorkID = @WorkID and M.DeleteFlg = 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Top 1 M.LastModifyDate
+From OOT2110 M With (NOLOCK)
+Where M.WorkID = @WorkID and M.DeleteFlg = 0 </t>
+  </si>
+  <si>
+    <t>Update OOT2110 Set 
+WorkName = @WorkName
+, AssignedToUserID = @AssignedToUserID
+, ProcessID = @ProcessID
+, StepID = @StepID
+, PercentProgress = @PercentProgress
+, StatusID = @StatusID
+, PlanStartDate = @PlanStartDate
+, PlanEndDate = @PlanEndDate
+, PlanTime = @PlanTime
+, ActualStartDate = @ActualStartDate
+, ActualEndDate = @ActualEndDate
+, ParentWorkID = @ParentWorkID
+, Orders = @Orders
+, Description = @Description
+, LastModifyUserID = @LastModifyUserID
+, LastModifyDate = @LastModifyDate
+Where APK = @APK and DeleteFlg = 0</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2738,7 +2889,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Sự kiện chọn [Người thực hiện]: btnChooseAssignedToUserName
-               - Từ màn hình TMF2021 truyền tham số @DivisionID gọi đến màn hình </t>
+               - Từ màn hình OOF2113 truyền tham số @DivisionID gọi đến màn hình </t>
     </r>
     <r>
       <rPr>
@@ -2777,29 +2928,8 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> quay về TMF2021 và Fill giá trị chọn EmployeeName vào AssignedToUserName để hiển thị và trường EmployeeID lưu ngầm vào AssignedToUserID</t>
+      <t xml:space="preserve"> quay về OOF2113 và Fill giá trị chọn EmployeeName vào AssignedToUserName để hiển thị và trường EmployeeID lưu ngầm vào AssignedToUserID</t>
     </r>
-  </si>
-  <si>
-    <t>Công việc cha (Chọn)</t>
-  </si>
-  <si>
-    <t>Công việc cha (Xóa)</t>
-  </si>
-  <si>
-    <t>PriviousWorkID</t>
-  </si>
-  <si>
-    <t>Công việc trước (Chọn)</t>
-  </si>
-  <si>
-    <t>btnChoosePriviousWorkID</t>
-  </si>
-  <si>
-    <t>Công việc trước (Xóa)</t>
-  </si>
-  <si>
-    <t>btnDeletePriviousWorkID</t>
   </si>
   <si>
     <r>
@@ -2810,7 +2940,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>Luồng 9</t>
+      <t>Luồng 8</t>
     </r>
     <r>
       <rPr>
@@ -2819,8 +2949,8 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: Sự kiện chọn [Công việc trước]: btnChoosePriviousWorkID
-               - Từ màn hình TMF2021 truyền tham số @DivisionID gọi đến màn hình </t>
+      <t xml:space="preserve">: Sự kiện chọn [Công việc cha]: btnChooseParentWorkName
+               - Từ màn hình OOF2113 truyền tham số @DivisionID gọi đến màn hình </t>
     </r>
     <r>
       <rPr>
@@ -2830,7 +2960,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>TMF9001 (Màn hình TMF9001 chỉ chọn được nhiều giá trị)</t>
+      <t>OOF2115 (Màn hình OOF2115 chỉ chọn được 1 giá trị)</t>
     </r>
     <r>
       <rPr>
@@ -2850,7 +2980,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>TMF9001</t>
+      <t>OOF2115</t>
     </r>
     <r>
       <rPr>
@@ -2859,7 +2989,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> quay về TMF2021 và Fill giá trị chọn WorkID vào PriviousWorkID để hiển thị và trường vào ParentWorkID</t>
+      <t xml:space="preserve"> quay về OOF2113 và Fill giá trị chọn WorkName vào ParentWorkName để hiển thị và trường WorkID lưu ngầm vào ParentWorkID</t>
     </r>
   </si>
   <si>
@@ -2871,7 +3001,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>Luồng 8</t>
+      <t>Luồng 9</t>
     </r>
     <r>
       <rPr>
@@ -2880,8 +3010,8 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: Sự kiện chọn [Công việc cha]: btnChooseParentWorkName
-               - Từ màn hình TMF2021 truyền tham số @DivisionID gọi đến màn hình </t>
+      <t xml:space="preserve">: Sự kiện chọn [Công việc trước]: btnChoosePriviousWorkID
+               - Từ màn hình OOF2113 truyền tham số @DivisionID gọi đến màn hình </t>
     </r>
     <r>
       <rPr>
@@ -2891,7 +3021,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>TMF9001 (Màn hình TMF9001 chỉ chọn được 1 giá trị)</t>
+      <t>OOF2115 (Màn hình OOF2115 chỉ chọn được nhiều giá trị)</t>
     </r>
     <r>
       <rPr>
@@ -2911,7 +3041,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>TMF9001</t>
+      <t>OOF2115</t>
     </r>
     <r>
       <rPr>
@@ -2920,143 +3050,14 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> quay về TMF2021 và Fill giá trị chọn WorkName vào ParentWorkName để hiển thị và trường WorkID lưu ngầm vào ParentWorkID</t>
+      <t xml:space="preserve"> quay về OOF2113 và Fill giá trị chọn WorkID vào PriviousWorkID để hiển thị và trường vào ParentWorkID</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Luồng 11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Sự kiện xóa [Công việc trước]: btnDeletePriviousWorkID
-               - Sẽ clear giá trị của textbox PriviousWorkID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Luồng 11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Sự kiện xóa [Công việc cha]: btnDeleteParentWorkName
-               - Sẽ clear giá trị của textbox ParentWorkID</t>
-    </r>
-  </si>
-  <si>
-    <t>btnChooseParentWorkID</t>
-  </si>
-  <si>
-    <t>btnDeleteParentWorkID</t>
-  </si>
-  <si>
-    <t>SQL combo trên tool BA</t>
-  </si>
-  <si>
-    <t>SQL_CMN_000055</t>
-  </si>
-  <si>
-    <t>SQL_CMN_000053</t>
-  </si>
-  <si>
-    <t>SQL_CMN_000056</t>
-  </si>
-  <si>
-    <t>SQL_CMN_000054</t>
-  </si>
-  <si>
-    <t>SQL_CMN_000052</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sau khi Sửa thành công ở luồng 4 và 5  thì Xử lý tab lịch sử theo chuẩn (Tham khảo tài liệu phân tích chi tiết lịch sử) Với @RelatedToTypeID = 48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXEC TMP2023 ( 
- @DivisionID nvarchar(250),   --Biến môi trường
- @ProjectID nvarchar(250),
- @ProcessID nvarchar(250),
- @StepID nvarchar(250),
- @StatusID nvarchar(250),
- @ConditionWorkID  NVARCHAR (MAX), --Phân quyền vai trò biến môi trường
- @UserID  nvarchar(250)    --Biến môi trường
-   ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXEC TMP2021 ( 
- @DivisionID varchar(50),
- @APK NVARCHAR(MAX),
- @APKList NVARCHAR(MAX),
- @TableID NVARCHAR(MAX), --TMT2020
- @Mode tinyint,   --0: Sửa, 1: Xóa
- @UserID Varchar(50)) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biến môi trường
- @APK 
- NULL
- "TMT2020" 
-0
- Biến môi trường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select Top 1 1 
-From TMT2020 M With (NOLOCK)
-Where M.WorkID = @WorkID and M.DeleteFlg = 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select Top 1 M.LastModifyDate
-From TMT2020 M With (NOLOCK)
-Where M.WorkID = @WorkID and M.DeleteFlg = 0 </t>
-  </si>
-  <si>
-    <t>Update TMT2020 Set 
-WorkName = @WorkName
-, AssignedToUserID = @AssignedToUserID
-, ProcessID = @ProcessID
-, StepID = @StepID
-, PercentProgress = @PercentProgress
-, StatusID = @StatusID
-, PlanStartDate = @PlanStartDate
-, PlanEndDate = @PlanEndDate
-, PlanTime = @PlanTime
-, ActualStartDate = @ActualStartDate
-, ActualEndDate = @ActualEndDate
-, ParentWorkID = @ParentWorkID
-, Orders = @Orders
-, Description = @Description
-, LastModifyUserID = @LastModifyUserID
-, LastModifyDate = @LastModifyDate
-Where APK = @APK and DeleteFlg = 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;Ver.&quot;0.00"/>
@@ -3575,7 +3576,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3960,75 +3961,111 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4038,42 +4075,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4134,20 +4135,56 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4161,42 +4198,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4221,17 +4222,26 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Comma [0] 2" xfId="4"/>
-    <cellStyle name="Currency [0] 2" xfId="5"/>
-    <cellStyle name="IBM(401K)" xfId="6"/>
-    <cellStyle name="J401K" xfId="7"/>
+    <cellStyle name="Comma [0] 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Currency [0] 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="IBM(401K)" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="J401K" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="標準_299_アカウント管理(画面イメージ：)" xfId="8"/>
-    <cellStyle name="標準_ACC000_サービス選択画面" xfId="2"/>
-    <cellStyle name="標準_外部設計書（別紙②：HTML切り替え方式）" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_299_アカウント管理(画面イメージ：)" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_ACC000_サービス選択画面" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準_外部設計書（別紙②：HTML切り替え方式）" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4269,7 +4279,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4"/>
+        <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4308,19 +4324,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1799214</xdr:colOff>
+      <xdr:colOff>2419351</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>94871</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1A7FE2-386F-468E-BABC-F0E79E7BF46D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4333,8 +4355,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="1028700"/>
-          <a:ext cx="8085714" cy="3028571"/>
+          <a:off x="400051" y="781050"/>
+          <a:ext cx="8896350" cy="3324225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4363,7 +4385,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="74" name="Group 73"/>
+        <xdr:cNvPr id="74" name="Group 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4376,7 +4404,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="Rectangle 3"/>
+          <xdr:cNvPr id="75" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4455,7 +4489,7 @@
                 <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Form TMF2023</a:t>
+              <a:t>Form OOF2113</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="700">
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -4466,7 +4500,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="Rectangle 3"/>
+          <xdr:cNvPr id="76" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4549,7 +4589,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t> TMF2023</a:t>
+              <a:t> OOF2113</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -4576,7 +4616,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="77" name="TextBox 76"/>
+          <xdr:cNvPr id="77" name="TextBox 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4649,7 +4695,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="78" name="Straight Arrow Connector 77"/>
+          <xdr:cNvPr id="78" name="Straight Arrow Connector 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="75" idx="3"/>
             <a:endCxn id="79" idx="1"/>
@@ -4684,7 +4736,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="Flowchart: Decision 78"/>
+          <xdr:cNvPr id="79" name="Flowchart: Decision 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4727,7 +4785,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="80" name="Straight Arrow Connector 79"/>
+          <xdr:cNvPr id="80" name="Straight Arrow Connector 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="79" idx="3"/>
             <a:endCxn id="97" idx="1"/>
@@ -4762,7 +4826,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="Rectangle 80"/>
+          <xdr:cNvPr id="81" name="Rectangle 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4861,7 +4931,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="Straight Arrow Connector 81"/>
+          <xdr:cNvPr id="82" name="Straight Arrow Connector 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="79" idx="2"/>
             <a:endCxn id="81" idx="0"/>
@@ -4896,7 +4972,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="TextBox 82"/>
+          <xdr:cNvPr id="83" name="TextBox 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4944,7 +5026,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="TextBox 83"/>
+          <xdr:cNvPr id="84" name="TextBox 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4992,7 +5080,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="Flowchart: Decision 84"/>
+          <xdr:cNvPr id="85" name="Flowchart: Decision 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5056,7 +5150,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="Flowchart: Direct Access Storage 85"/>
+          <xdr:cNvPr id="86" name="Flowchart: Direct Access Storage 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5149,7 +5249,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="TextBox 86"/>
+          <xdr:cNvPr id="87" name="TextBox 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5199,7 +5305,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="Flowchart: Decision 87"/>
+          <xdr:cNvPr id="88" name="Flowchart: Decision 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5263,7 +5375,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="89" name="Straight Arrow Connector 88"/>
+          <xdr:cNvPr id="89" name="Straight Arrow Connector 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="85" idx="3"/>
             <a:endCxn id="88" idx="1"/>
@@ -5298,7 +5416,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="90" name="Straight Arrow Connector 89"/>
+          <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="85" idx="2"/>
             <a:endCxn id="92" idx="0"/>
@@ -5333,7 +5457,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="91" name="Straight Arrow Connector 90"/>
+          <xdr:cNvPr id="91" name="Straight Arrow Connector 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="88" idx="2"/>
             <a:endCxn id="93" idx="0"/>
@@ -5368,7 +5498,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="Rectangle 91"/>
+          <xdr:cNvPr id="92" name="Rectangle 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5421,7 +5557,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="Rectangle 92"/>
+          <xdr:cNvPr id="93" name="Rectangle 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5499,7 +5641,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="TextBox 93"/>
+          <xdr:cNvPr id="94" name="TextBox 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5549,7 +5697,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="TextBox 94"/>
+          <xdr:cNvPr id="95" name="TextBox 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5597,7 +5751,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="TextBox 95"/>
+          <xdr:cNvPr id="96" name="TextBox 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5645,7 +5805,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="Flowchart: Decision 96"/>
+          <xdr:cNvPr id="97" name="Flowchart: Decision 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5699,7 +5865,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
+          <xdr:cNvPr id="98" name="Straight Arrow Connector 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000062000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="97" idx="3"/>
             <a:endCxn id="85" idx="1"/>
@@ -5734,7 +5906,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="Rectangle 98"/>
+          <xdr:cNvPr id="99" name="Rectangle 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000063000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5833,7 +6011,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="100" name="Straight Arrow Connector 99"/>
+          <xdr:cNvPr id="100" name="Straight Arrow Connector 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000064000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="97" idx="2"/>
             <a:endCxn id="99" idx="0"/>
@@ -5868,7 +6052,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="TextBox 100"/>
+          <xdr:cNvPr id="101" name="TextBox 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5916,7 +6106,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="TextBox 101"/>
+          <xdr:cNvPr id="102" name="TextBox 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5964,7 +6160,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="103" name="Straight Arrow Connector 102"/>
+          <xdr:cNvPr id="103" name="Straight Arrow Connector 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="88" idx="3"/>
             <a:endCxn id="86" idx="1"/>
@@ -5999,7 +6201,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="104" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="104" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="86" idx="2"/>
             <a:endCxn id="76" idx="0"/>
@@ -6052,7 +6260,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="105" name="Group 104"/>
+        <xdr:cNvPr id="105" name="Group 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6065,7 +6279,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="Rectangle 3"/>
+          <xdr:cNvPr id="106" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6155,7 +6375,7 @@
                 <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Form TMF2023</a:t>
+              <a:t>Form OOF2113</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="700">
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -6166,7 +6386,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="Rectangle 3"/>
+          <xdr:cNvPr id="107" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6273,7 +6499,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t> TMF2023</a:t>
+              <a:t> OOF2113</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -6300,7 +6526,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="TextBox 107"/>
+          <xdr:cNvPr id="108" name="TextBox 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6414,7 +6646,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="Flowchart: Decision 108"/>
+          <xdr:cNvPr id="109" name="Flowchart: Decision 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6457,7 +6695,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="110" name="Straight Arrow Connector 109"/>
+          <xdr:cNvPr id="110" name="Straight Arrow Connector 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="109" idx="3"/>
             <a:endCxn id="127" idx="1"/>
@@ -6492,7 +6736,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="111" name="Rectangle 110"/>
+          <xdr:cNvPr id="111" name="Rectangle 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6591,7 +6841,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="112" name="Straight Arrow Connector 111"/>
+          <xdr:cNvPr id="112" name="Straight Arrow Connector 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="109" idx="2"/>
             <a:endCxn id="111" idx="0"/>
@@ -6626,7 +6882,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="TextBox 112"/>
+          <xdr:cNvPr id="113" name="TextBox 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6674,7 +6936,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="TextBox 113"/>
+          <xdr:cNvPr id="114" name="TextBox 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6722,7 +6990,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="115" name="Flowchart: Decision 114"/>
+          <xdr:cNvPr id="115" name="Flowchart: Decision 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000073000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6786,7 +7060,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="Flowchart: Direct Access Storage 115"/>
+          <xdr:cNvPr id="116" name="Flowchart: Direct Access Storage 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000074000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6879,7 +7159,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="117" name="TextBox 116"/>
+          <xdr:cNvPr id="117" name="TextBox 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000075000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6929,7 +7215,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="Flowchart: Decision 117"/>
+          <xdr:cNvPr id="118" name="Flowchart: Decision 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6993,7 +7285,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="119" name="Straight Arrow Connector 118"/>
+          <xdr:cNvPr id="119" name="Straight Arrow Connector 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="115" idx="3"/>
             <a:endCxn id="118" idx="1"/>
@@ -7028,7 +7326,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="120" name="Straight Arrow Connector 119"/>
+          <xdr:cNvPr id="120" name="Straight Arrow Connector 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="115" idx="2"/>
             <a:endCxn id="122" idx="0"/>
@@ -7063,7 +7367,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="121" name="Straight Arrow Connector 120"/>
+          <xdr:cNvPr id="121" name="Straight Arrow Connector 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="118" idx="2"/>
             <a:endCxn id="123" idx="0"/>
@@ -7098,7 +7408,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="Rectangle 121"/>
+          <xdr:cNvPr id="122" name="Rectangle 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7151,7 +7467,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="Rectangle 122"/>
+          <xdr:cNvPr id="123" name="Rectangle 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7229,7 +7551,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="TextBox 123"/>
+          <xdr:cNvPr id="124" name="TextBox 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7279,7 +7607,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="125" name="TextBox 124"/>
+          <xdr:cNvPr id="125" name="TextBox 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7327,7 +7661,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="126" name="TextBox 125"/>
+          <xdr:cNvPr id="126" name="TextBox 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7375,7 +7715,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="Flowchart: Decision 126"/>
+          <xdr:cNvPr id="127" name="Flowchart: Decision 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7429,7 +7775,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="128" name="Straight Arrow Connector 127"/>
+          <xdr:cNvPr id="128" name="Straight Arrow Connector 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000080000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="127" idx="3"/>
             <a:endCxn id="115" idx="1"/>
@@ -7464,7 +7816,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="129" name="Rectangle 128"/>
+          <xdr:cNvPr id="129" name="Rectangle 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000081000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7563,7 +7921,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="130" name="Straight Arrow Connector 129"/>
+          <xdr:cNvPr id="130" name="Straight Arrow Connector 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000082000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="127" idx="2"/>
             <a:endCxn id="129" idx="0"/>
@@ -7598,7 +7962,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="131" name="TextBox 130"/>
+          <xdr:cNvPr id="131" name="TextBox 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000083000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7646,7 +8016,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="132" name="TextBox 131"/>
+          <xdr:cNvPr id="132" name="TextBox 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000084000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7694,7 +8070,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="133" name="Straight Arrow Connector 132"/>
+          <xdr:cNvPr id="133" name="Straight Arrow Connector 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="118" idx="3"/>
             <a:endCxn id="116" idx="1"/>
@@ -7729,7 +8111,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="134" name="Straight Arrow Connector 133"/>
+          <xdr:cNvPr id="134" name="Straight Arrow Connector 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000086000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="116" idx="4"/>
             <a:endCxn id="107" idx="1"/>
@@ -7764,7 +8152,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="135" name="Flowchart: Decision 134"/>
+          <xdr:cNvPr id="135" name="Flowchart: Decision 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7807,7 +8201,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="136" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="136" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000088000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="135" idx="0"/>
             <a:endCxn id="107" idx="0"/>
@@ -7844,7 +8244,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="137" name="Flowchart: Decision 136"/>
+          <xdr:cNvPr id="137" name="Flowchart: Decision 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000089000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7943,7 +8349,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="138" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="138" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="106" idx="2"/>
             <a:endCxn id="135" idx="1"/>
@@ -7978,7 +8390,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="139" name="Straight Arrow Connector 138"/>
+          <xdr:cNvPr id="139" name="Straight Arrow Connector 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="137" idx="3"/>
             <a:endCxn id="109" idx="1"/>
@@ -8013,7 +8431,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="140" name="Straight Arrow Connector 139"/>
+          <xdr:cNvPr id="140" name="Straight Arrow Connector 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="135" idx="3"/>
             <a:endCxn id="137" idx="1"/>
@@ -8048,7 +8472,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="141" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="141" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="137" idx="0"/>
             <a:endCxn id="107" idx="0"/>
@@ -8085,7 +8515,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="142" name="TextBox 141"/>
+          <xdr:cNvPr id="142" name="TextBox 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8133,7 +8569,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="143" name="TextBox 142"/>
+          <xdr:cNvPr id="143" name="TextBox 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8181,7 +8623,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="144" name="TextBox 143"/>
+          <xdr:cNvPr id="144" name="TextBox 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000090000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8229,7 +8677,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="145" name="TextBox 144"/>
+          <xdr:cNvPr id="145" name="TextBox 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000091000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8400,6 +8854,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8435,6 +8906,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8610,7 +9098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GM31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -9070,65 +9558,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="163"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="165" t="s">
+      <c r="A1" s="157"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="159" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="164" t="s">
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164" t="s">
+      <c r="H1" s="158"/>
+      <c r="I1" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="164"/>
+      <c r="J1" s="158"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="164" t="s">
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="160" t="s">
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="161"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="161"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="155"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="162"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
       <c r="K13" s="98"/>
       <c r="L13" s="98"/>
       <c r="M13" s="98"/>
@@ -9139,56 +9627,56 @@
       <c r="R13" s="98"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="156"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="152"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
       <c r="K16" s="99"/>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -9199,384 +9687,384 @@
       <c r="R16" s="99"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="156"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="156"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="156"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="152"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="169"/>
+      <c r="O19" s="169"/>
+      <c r="P19" s="169"/>
+      <c r="Q19" s="169"/>
+      <c r="R19" s="169"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="156"/>
-      <c r="Q20" s="156"/>
-      <c r="R20" s="156"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="156"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="156"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="152"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="157"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="168"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="168"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="168"/>
+      <c r="Q22" s="168"/>
+      <c r="R22" s="168"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="157"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168"/>
+      <c r="O23" s="168"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="168"/>
+      <c r="R23" s="168"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="170"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="155"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="153"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="153"/>
-      <c r="V28" s="153"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="153"/>
-      <c r="Z28" s="153"/>
-      <c r="AA28" s="153"/>
-      <c r="AB28" s="153"/>
-      <c r="AC28" s="153"/>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="153"/>
-      <c r="AF28" s="153"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="153"/>
-      <c r="AI28" s="153"/>
-      <c r="AJ28" s="153"/>
-      <c r="AK28" s="153"/>
-      <c r="AL28" s="153"/>
-      <c r="AM28" s="153"/>
-      <c r="AN28" s="153"/>
-      <c r="AO28" s="153"/>
-      <c r="AP28" s="153"/>
-      <c r="AQ28" s="153"/>
-      <c r="AR28" s="153"/>
-      <c r="AS28" s="153"/>
-      <c r="AT28" s="153"/>
-      <c r="AU28" s="153"/>
-      <c r="AV28" s="153"/>
-      <c r="AW28" s="153"/>
-      <c r="AX28" s="153"/>
-      <c r="AY28" s="153"/>
-      <c r="AZ28" s="153"/>
-      <c r="BA28" s="153"/>
-      <c r="BB28" s="153"/>
-      <c r="BC28" s="153"/>
-      <c r="BD28" s="153"/>
-      <c r="BE28" s="153"/>
-      <c r="BF28" s="153"/>
-      <c r="BG28" s="153"/>
-      <c r="BH28" s="153"/>
-      <c r="BI28" s="153"/>
-      <c r="BJ28" s="153"/>
-      <c r="BK28" s="153"/>
-      <c r="BL28" s="153"/>
-      <c r="BM28" s="153"/>
-      <c r="BN28" s="153"/>
-      <c r="BO28" s="153"/>
-      <c r="BP28" s="153"/>
-      <c r="BQ28" s="153"/>
-      <c r="BR28" s="153"/>
-      <c r="BS28" s="153"/>
-      <c r="BT28" s="153"/>
-      <c r="BU28" s="153"/>
-      <c r="BV28" s="153"/>
-      <c r="BW28" s="153"/>
-      <c r="BX28" s="153"/>
-      <c r="BY28" s="153"/>
-      <c r="BZ28" s="153"/>
-      <c r="CA28" s="153"/>
-      <c r="CB28" s="153"/>
-      <c r="CC28" s="153"/>
-      <c r="CD28" s="153"/>
-      <c r="CE28" s="153"/>
-      <c r="CF28" s="153"/>
-      <c r="CG28" s="153"/>
-      <c r="CH28" s="153"/>
-      <c r="CI28" s="153"/>
-      <c r="CJ28" s="153"/>
-      <c r="CK28" s="153"/>
-      <c r="CL28" s="153"/>
-      <c r="CM28" s="153"/>
-      <c r="CN28" s="153"/>
-      <c r="CO28" s="153"/>
-      <c r="CP28" s="153"/>
-      <c r="CQ28" s="153"/>
-      <c r="CR28" s="153"/>
-      <c r="CS28" s="153"/>
-      <c r="CT28" s="153"/>
-      <c r="CU28" s="153"/>
-      <c r="CV28" s="153"/>
-      <c r="CW28" s="153"/>
-      <c r="CX28" s="153"/>
-      <c r="CY28" s="153"/>
-      <c r="CZ28" s="153"/>
-      <c r="DA28" s="153"/>
-      <c r="DB28" s="153"/>
-      <c r="DC28" s="153"/>
-      <c r="DD28" s="153"/>
-      <c r="DE28" s="153"/>
-      <c r="DF28" s="153"/>
-      <c r="DG28" s="153"/>
-      <c r="DH28" s="153"/>
-      <c r="DI28" s="153"/>
-      <c r="DJ28" s="153"/>
-      <c r="DK28" s="153"/>
-      <c r="DL28" s="153"/>
-      <c r="DM28" s="153"/>
-      <c r="DN28" s="153"/>
-      <c r="DO28" s="153"/>
-      <c r="DP28" s="153"/>
-      <c r="DQ28" s="153"/>
-      <c r="DR28" s="153"/>
-      <c r="DS28" s="153"/>
-      <c r="DT28" s="153"/>
-      <c r="DU28" s="153"/>
-      <c r="DV28" s="153"/>
-      <c r="DW28" s="153"/>
-      <c r="DX28" s="153"/>
-      <c r="DY28" s="153"/>
-      <c r="DZ28" s="153"/>
-      <c r="EA28" s="153"/>
-      <c r="EB28" s="153"/>
-      <c r="EC28" s="153"/>
-      <c r="ED28" s="153"/>
-      <c r="EE28" s="153"/>
-      <c r="EF28" s="153"/>
-      <c r="EG28" s="153"/>
-      <c r="EH28" s="153"/>
-      <c r="EI28" s="153"/>
-      <c r="EJ28" s="153"/>
-      <c r="EK28" s="153"/>
-      <c r="EL28" s="153"/>
-      <c r="EM28" s="153"/>
-      <c r="EN28" s="153"/>
-      <c r="EO28" s="153"/>
-      <c r="EP28" s="153"/>
-      <c r="EQ28" s="153"/>
-      <c r="ER28" s="153"/>
-      <c r="ES28" s="153"/>
-      <c r="ET28" s="153"/>
-      <c r="EU28" s="153"/>
-      <c r="EV28" s="153"/>
-      <c r="EW28" s="153"/>
-      <c r="EX28" s="153"/>
-      <c r="EY28" s="153"/>
-      <c r="EZ28" s="153"/>
-      <c r="FA28" s="153"/>
-      <c r="FB28" s="153"/>
-      <c r="FC28" s="153"/>
-      <c r="FD28" s="153"/>
-      <c r="FE28" s="153"/>
-      <c r="FF28" s="153"/>
-      <c r="FG28" s="153"/>
-      <c r="FH28" s="153"/>
-      <c r="FI28" s="153"/>
-      <c r="FJ28" s="153"/>
-      <c r="FK28" s="153"/>
-      <c r="FL28" s="153"/>
-      <c r="FM28" s="153"/>
-      <c r="FN28" s="153"/>
-      <c r="FO28" s="153"/>
-      <c r="FP28" s="153"/>
-      <c r="FQ28" s="153"/>
-      <c r="FR28" s="153"/>
-      <c r="FS28" s="153"/>
-      <c r="FT28" s="153"/>
-      <c r="FU28" s="153"/>
-      <c r="FV28" s="153"/>
-      <c r="FW28" s="153"/>
-      <c r="FX28" s="153"/>
-      <c r="FY28" s="153"/>
-      <c r="FZ28" s="153"/>
-      <c r="GA28" s="153"/>
-      <c r="GB28" s="153"/>
-      <c r="GC28" s="153"/>
-      <c r="GD28" s="153"/>
-      <c r="GE28" s="153"/>
-      <c r="GF28" s="153"/>
-      <c r="GG28" s="153"/>
-      <c r="GH28" s="153"/>
-      <c r="GI28" s="153"/>
-      <c r="GJ28" s="153"/>
-      <c r="GK28" s="153"/>
-      <c r="GL28" s="153"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="172"/>
+      <c r="S28" s="171"/>
+      <c r="T28" s="171"/>
+      <c r="U28" s="171"/>
+      <c r="V28" s="171"/>
+      <c r="W28" s="171"/>
+      <c r="X28" s="171"/>
+      <c r="Y28" s="171"/>
+      <c r="Z28" s="171"/>
+      <c r="AA28" s="171"/>
+      <c r="AB28" s="171"/>
+      <c r="AC28" s="171"/>
+      <c r="AD28" s="171"/>
+      <c r="AE28" s="171"/>
+      <c r="AF28" s="171"/>
+      <c r="AG28" s="171"/>
+      <c r="AH28" s="171"/>
+      <c r="AI28" s="171"/>
+      <c r="AJ28" s="171"/>
+      <c r="AK28" s="171"/>
+      <c r="AL28" s="171"/>
+      <c r="AM28" s="171"/>
+      <c r="AN28" s="171"/>
+      <c r="AO28" s="171"/>
+      <c r="AP28" s="171"/>
+      <c r="AQ28" s="171"/>
+      <c r="AR28" s="171"/>
+      <c r="AS28" s="171"/>
+      <c r="AT28" s="171"/>
+      <c r="AU28" s="171"/>
+      <c r="AV28" s="171"/>
+      <c r="AW28" s="171"/>
+      <c r="AX28" s="171"/>
+      <c r="AY28" s="171"/>
+      <c r="AZ28" s="171"/>
+      <c r="BA28" s="171"/>
+      <c r="BB28" s="171"/>
+      <c r="BC28" s="171"/>
+      <c r="BD28" s="171"/>
+      <c r="BE28" s="171"/>
+      <c r="BF28" s="171"/>
+      <c r="BG28" s="171"/>
+      <c r="BH28" s="171"/>
+      <c r="BI28" s="171"/>
+      <c r="BJ28" s="171"/>
+      <c r="BK28" s="171"/>
+      <c r="BL28" s="171"/>
+      <c r="BM28" s="171"/>
+      <c r="BN28" s="171"/>
+      <c r="BO28" s="171"/>
+      <c r="BP28" s="171"/>
+      <c r="BQ28" s="171"/>
+      <c r="BR28" s="171"/>
+      <c r="BS28" s="171"/>
+      <c r="BT28" s="171"/>
+      <c r="BU28" s="171"/>
+      <c r="BV28" s="171"/>
+      <c r="BW28" s="171"/>
+      <c r="BX28" s="171"/>
+      <c r="BY28" s="171"/>
+      <c r="BZ28" s="171"/>
+      <c r="CA28" s="171"/>
+      <c r="CB28" s="171"/>
+      <c r="CC28" s="171"/>
+      <c r="CD28" s="171"/>
+      <c r="CE28" s="171"/>
+      <c r="CF28" s="171"/>
+      <c r="CG28" s="171"/>
+      <c r="CH28" s="171"/>
+      <c r="CI28" s="171"/>
+      <c r="CJ28" s="171"/>
+      <c r="CK28" s="171"/>
+      <c r="CL28" s="171"/>
+      <c r="CM28" s="171"/>
+      <c r="CN28" s="171"/>
+      <c r="CO28" s="171"/>
+      <c r="CP28" s="171"/>
+      <c r="CQ28" s="171"/>
+      <c r="CR28" s="171"/>
+      <c r="CS28" s="171"/>
+      <c r="CT28" s="171"/>
+      <c r="CU28" s="171"/>
+      <c r="CV28" s="171"/>
+      <c r="CW28" s="171"/>
+      <c r="CX28" s="171"/>
+      <c r="CY28" s="171"/>
+      <c r="CZ28" s="171"/>
+      <c r="DA28" s="171"/>
+      <c r="DB28" s="171"/>
+      <c r="DC28" s="171"/>
+      <c r="DD28" s="171"/>
+      <c r="DE28" s="171"/>
+      <c r="DF28" s="171"/>
+      <c r="DG28" s="171"/>
+      <c r="DH28" s="171"/>
+      <c r="DI28" s="171"/>
+      <c r="DJ28" s="171"/>
+      <c r="DK28" s="171"/>
+      <c r="DL28" s="171"/>
+      <c r="DM28" s="171"/>
+      <c r="DN28" s="171"/>
+      <c r="DO28" s="171"/>
+      <c r="DP28" s="171"/>
+      <c r="DQ28" s="171"/>
+      <c r="DR28" s="171"/>
+      <c r="DS28" s="171"/>
+      <c r="DT28" s="171"/>
+      <c r="DU28" s="171"/>
+      <c r="DV28" s="171"/>
+      <c r="DW28" s="171"/>
+      <c r="DX28" s="171"/>
+      <c r="DY28" s="171"/>
+      <c r="DZ28" s="171"/>
+      <c r="EA28" s="171"/>
+      <c r="EB28" s="171"/>
+      <c r="EC28" s="171"/>
+      <c r="ED28" s="171"/>
+      <c r="EE28" s="171"/>
+      <c r="EF28" s="171"/>
+      <c r="EG28" s="171"/>
+      <c r="EH28" s="171"/>
+      <c r="EI28" s="171"/>
+      <c r="EJ28" s="171"/>
+      <c r="EK28" s="171"/>
+      <c r="EL28" s="171"/>
+      <c r="EM28" s="171"/>
+      <c r="EN28" s="171"/>
+      <c r="EO28" s="171"/>
+      <c r="EP28" s="171"/>
+      <c r="EQ28" s="171"/>
+      <c r="ER28" s="171"/>
+      <c r="ES28" s="171"/>
+      <c r="ET28" s="171"/>
+      <c r="EU28" s="171"/>
+      <c r="EV28" s="171"/>
+      <c r="EW28" s="171"/>
+      <c r="EX28" s="171"/>
+      <c r="EY28" s="171"/>
+      <c r="EZ28" s="171"/>
+      <c r="FA28" s="171"/>
+      <c r="FB28" s="171"/>
+      <c r="FC28" s="171"/>
+      <c r="FD28" s="171"/>
+      <c r="FE28" s="171"/>
+      <c r="FF28" s="171"/>
+      <c r="FG28" s="171"/>
+      <c r="FH28" s="171"/>
+      <c r="FI28" s="171"/>
+      <c r="FJ28" s="171"/>
+      <c r="FK28" s="171"/>
+      <c r="FL28" s="171"/>
+      <c r="FM28" s="171"/>
+      <c r="FN28" s="171"/>
+      <c r="FO28" s="171"/>
+      <c r="FP28" s="171"/>
+      <c r="FQ28" s="171"/>
+      <c r="FR28" s="171"/>
+      <c r="FS28" s="171"/>
+      <c r="FT28" s="171"/>
+      <c r="FU28" s="171"/>
+      <c r="FV28" s="171"/>
+      <c r="FW28" s="171"/>
+      <c r="FX28" s="171"/>
+      <c r="FY28" s="171"/>
+      <c r="FZ28" s="171"/>
+      <c r="GA28" s="171"/>
+      <c r="GB28" s="171"/>
+      <c r="GC28" s="171"/>
+      <c r="GD28" s="171"/>
+      <c r="GE28" s="171"/>
+      <c r="GF28" s="171"/>
+      <c r="GG28" s="171"/>
+      <c r="GH28" s="171"/>
+      <c r="GI28" s="171"/>
+      <c r="GJ28" s="171"/>
+      <c r="GK28" s="171"/>
+      <c r="GL28" s="171"/>
       <c r="GM28" s="100"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="154"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="170"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="170"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="152"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="152"/>
+      <c r="A30" s="173"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
       <c r="K30" s="101"/>
       <c r="L30" s="101"/>
       <c r="M30" s="101"/>
@@ -9587,16 +10075,16 @@
       <c r="R30" s="101"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="152"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="152"/>
+      <c r="A31" s="173"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="173"/>
       <c r="K31" s="101"/>
       <c r="L31" s="101"/>
       <c r="M31" s="101"/>
@@ -9608,6 +10096,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -9621,28 +10131,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -9653,7 +10141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -10076,11 +10564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10249,7 +10737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -10263,16 +10751,16 @@
     <col min="3" max="3" width="13.7109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="22" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="22" customWidth="1"/>
     <col min="7" max="10" width="12.7109375" style="22" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -10283,7 +10771,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -10299,19 +10787,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>6</v>
@@ -10339,14 +10827,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="185" t="s">
+      <c r="E4" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="11.25">
       <c r="A5" s="106">
@@ -10361,14 +10849,14 @@
       <c r="D5" s="128">
         <v>43025</v>
       </c>
-      <c r="E5" s="186" t="s">
+      <c r="E5" s="176" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
     </row>
     <row r="6" spans="1:10" s="119" customFormat="1" ht="12.75">
       <c r="A6" s="118">
@@ -10379,12 +10867,12 @@
       </c>
       <c r="C6" s="123"/>
       <c r="D6" s="123"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="189"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="179"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="73">
@@ -10395,12 +10883,12 @@
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="180"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="183"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="74">
@@ -10411,12 +10899,12 @@
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="125"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="183"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="75">
@@ -10427,12 +10915,12 @@
       </c>
       <c r="C9" s="66"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="177"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="189"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="76">
@@ -10443,12 +10931,12 @@
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="177"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="189"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="77">
@@ -10459,12 +10947,12 @@
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="177"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="189"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="78">
@@ -10475,12 +10963,12 @@
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="177"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="189"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="79">
@@ -10491,12 +10979,12 @@
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="177"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="189"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="80">
@@ -10507,12 +10995,12 @@
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="177"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="189"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -10523,12 +11011,12 @@
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="72">
@@ -10539,12 +11027,12 @@
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="73">
@@ -10555,12 +11043,12 @@
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="74">
@@ -10571,12 +11059,12 @@
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="75">
@@ -10587,12 +11075,12 @@
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="180"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="76">
@@ -10603,12 +11091,12 @@
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="77">
@@ -10619,12 +11107,12 @@
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="180"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="78">
@@ -10635,12 +11123,12 @@
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="79">
@@ -10651,12 +11139,12 @@
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="80">
@@ -10667,12 +11155,12 @@
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="180"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -10683,12 +11171,12 @@
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="180"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72">
@@ -10699,12 +11187,12 @@
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="73">
@@ -10715,12 +11203,12 @@
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="74">
@@ -10731,12 +11219,12 @@
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="180"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="75">
@@ -10747,12 +11235,12 @@
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="76">
@@ -10763,12 +11251,12 @@
       </c>
       <c r="C30" s="66"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
+      <c r="E30" s="180"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="180"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="77">
@@ -10779,12 +11267,12 @@
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="180"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="78">
@@ -10795,12 +11283,12 @@
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="180"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="79">
@@ -10811,12 +11299,12 @@
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="174"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="180"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="80">
@@ -10827,26 +11315,20 @@
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -10863,17 +11345,23 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"ASOFT-CRM,ASOFT - S,ASOFT - CI,ASOFT - T,ASOFT - OP,ASOFT - FA,ASOFT - WM,ASOFT - M,ASOFT - OP,ASOFT - HRM"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10889,11 +11377,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10912,10 +11400,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -10928,7 +11416,7 @@
       </c>
       <c r="F1" s="34" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2023</v>
+        <v>OOF2113</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -10946,14 +11434,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
@@ -11003,7 +11491,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
       <c r="I5" s="197" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J5" s="198"/>
     </row>
@@ -11091,7 +11579,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
       <c r="I12" s="193" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="J12" s="194"/>
     </row>
@@ -11441,11 +11929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:EB33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
@@ -11473,13 +11961,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
       <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
@@ -11493,7 +11981,7 @@
       <c r="I1" s="204"/>
       <c r="J1" s="205" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2023</v>
+        <v>OOF2113</v>
       </c>
       <c r="K1" s="206"/>
       <c r="L1" s="207"/>
@@ -11513,17 +12001,17 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="27" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="H2" s="203" t="s">
         <v>49</v>
@@ -11610,7 +12098,7 @@
       <c r="C5" s="104"/>
       <c r="D5" s="32"/>
       <c r="E5" s="130" t="s">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -11634,13 +12122,13 @@
       <c r="C6" s="104"/>
       <c r="D6" s="32"/>
       <c r="E6" s="54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H6" s="130" t="s">
         <v>162</v>
@@ -11666,13 +12154,13 @@
       <c r="C7" s="104"/>
       <c r="D7" s="32"/>
       <c r="E7" s="54" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H7" s="130" t="s">
         <v>162</v>
@@ -11698,13 +12186,13 @@
       <c r="C8" s="104"/>
       <c r="D8" s="32"/>
       <c r="E8" s="54" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H8" s="130" t="s">
         <v>162</v>
@@ -11758,13 +12246,13 @@
       <c r="C10" s="104"/>
       <c r="D10" s="32"/>
       <c r="E10" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="121" t="s">
-        <v>202</v>
-      </c>
       <c r="G10" s="121" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H10" s="130" t="s">
         <v>158</v>
@@ -11781,7 +12269,7 @@
       <c r="N10" s="121"/>
       <c r="O10" s="121"/>
       <c r="P10" s="121" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
@@ -11794,13 +12282,13 @@
       <c r="C11" s="104"/>
       <c r="D11" s="32"/>
       <c r="E11" s="54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G11" s="130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H11" s="130" t="s">
         <v>158</v>
@@ -11828,13 +12316,13 @@
       <c r="C12" s="104"/>
       <c r="D12" s="32"/>
       <c r="E12" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F12" s="108" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G12" s="130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="130" t="s">
         <v>158</v>
@@ -11864,13 +12352,13 @@
       <c r="C13" s="104"/>
       <c r="D13" s="32"/>
       <c r="E13" s="54" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F13" s="130" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G13" s="130" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H13" s="130" t="s">
         <v>162</v>
@@ -11898,13 +12386,13 @@
       <c r="C14" s="104"/>
       <c r="D14" s="32"/>
       <c r="E14" s="54" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F14" s="130" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G14" s="130" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H14" s="130" t="s">
         <v>162</v>
@@ -11932,13 +12420,13 @@
       <c r="C15" s="104"/>
       <c r="D15" s="32"/>
       <c r="E15" s="54" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F15" s="130" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G15" s="130" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H15" s="130" t="s">
         <v>158</v>
@@ -11968,13 +12456,13 @@
       <c r="C16" s="104"/>
       <c r="D16" s="32"/>
       <c r="E16" s="54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F16" s="130" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G16" s="130" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H16" s="130" t="s">
         <v>162</v>
@@ -12002,13 +12490,13 @@
       <c r="C17" s="104"/>
       <c r="D17" s="32"/>
       <c r="E17" s="54" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F17" s="130" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G17" s="130" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H17" s="130" t="s">
         <v>158</v>
@@ -12036,10 +12524,10 @@
       <c r="C18" s="142"/>
       <c r="D18" s="143"/>
       <c r="E18" s="144" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F18" s="144" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G18" s="144"/>
       <c r="H18" s="144" t="s">
@@ -12180,10 +12668,10 @@
       <c r="C19" s="142"/>
       <c r="D19" s="143"/>
       <c r="E19" s="144" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F19" s="144" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G19" s="144"/>
       <c r="H19" s="144" t="s">
@@ -12324,13 +12812,13 @@
       <c r="C20" s="142"/>
       <c r="D20" s="143"/>
       <c r="E20" s="144" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F20" s="144" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G20" s="144" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H20" s="144" t="s">
         <v>158</v>
@@ -12474,10 +12962,10 @@
       <c r="C21" s="142"/>
       <c r="D21" s="143"/>
       <c r="E21" s="144" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F21" s="144" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G21" s="144"/>
       <c r="H21" s="144" t="s">
@@ -12618,10 +13106,10 @@
       <c r="C22" s="142"/>
       <c r="D22" s="143"/>
       <c r="E22" s="144" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F22" s="144" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G22" s="144"/>
       <c r="H22" s="144" t="s">
@@ -12762,19 +13250,19 @@
       <c r="C23" s="104"/>
       <c r="D23" s="32"/>
       <c r="E23" s="54" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F23" s="130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G23" s="130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H23" s="130" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I23" s="130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
@@ -12782,7 +13270,7 @@
         <v>147</v>
       </c>
       <c r="M23" s="130" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N23" s="130"/>
       <c r="O23" s="130"/>
@@ -12798,19 +13286,19 @@
       <c r="C24" s="104"/>
       <c r="D24" s="32"/>
       <c r="E24" s="54" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F24" s="130" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G24" s="130" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H24" s="130" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I24" s="130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
@@ -12818,7 +13306,7 @@
         <v>147</v>
       </c>
       <c r="M24" s="130" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N24" s="130"/>
       <c r="O24" s="130"/>
@@ -12834,13 +13322,13 @@
       <c r="C25" s="104"/>
       <c r="D25" s="32"/>
       <c r="E25" s="54" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F25" s="130" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G25" s="130" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H25" s="130" t="s">
         <v>158</v>
@@ -12870,19 +13358,19 @@
       <c r="C26" s="104"/>
       <c r="D26" s="32"/>
       <c r="E26" s="54" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F26" s="130" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G26" s="130" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H26" s="130" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I26" s="130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
@@ -12890,7 +13378,7 @@
         <v>147</v>
       </c>
       <c r="M26" s="130" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N26" s="130"/>
       <c r="O26" s="130"/>
@@ -12906,19 +13394,19 @@
       <c r="C27" s="104"/>
       <c r="D27" s="32"/>
       <c r="E27" s="54" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F27" s="130" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" s="130" t="s">
+        <v>226</v>
+      </c>
+      <c r="H27" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="G27" s="130" t="s">
-        <v>230</v>
-      </c>
-      <c r="H27" s="130" t="s">
-        <v>234</v>
-      </c>
       <c r="I27" s="130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J27" s="56"/>
       <c r="K27" s="56"/>
@@ -12926,7 +13414,7 @@
         <v>147</v>
       </c>
       <c r="M27" s="130" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N27" s="130"/>
       <c r="O27" s="130"/>
@@ -12942,13 +13430,13 @@
       <c r="C28" s="104"/>
       <c r="D28" s="32"/>
       <c r="E28" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" s="130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G28" s="130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H28" s="130" t="s">
         <v>158</v>
@@ -12965,7 +13453,7 @@
       <c r="N28" s="130"/>
       <c r="O28" s="130"/>
       <c r="P28" s="130" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:132" s="150" customFormat="1" ht="18" customHeight="1">
@@ -12978,10 +13466,10 @@
       <c r="C29" s="142"/>
       <c r="D29" s="143"/>
       <c r="E29" s="144" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F29" s="144" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G29" s="144"/>
       <c r="H29" s="144" t="s">
@@ -13122,7 +13610,7 @@
       <c r="C30" s="104"/>
       <c r="D30" s="32"/>
       <c r="E30" s="54" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F30" s="130" t="s">
         <v>128</v>
@@ -13131,7 +13619,7 @@
         <v>128</v>
       </c>
       <c r="H30" s="130" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I30" s="130" t="s">
         <v>159</v>
@@ -13156,13 +13644,13 @@
       <c r="C31" s="104"/>
       <c r="D31" s="32"/>
       <c r="E31" s="54" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F31" s="130" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G31" s="130" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H31" s="130" t="s">
         <v>158</v>
@@ -13190,10 +13678,10 @@
       <c r="C32" s="104"/>
       <c r="D32" s="32"/>
       <c r="E32" s="54" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F32" s="108" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G32" s="108"/>
       <c r="H32" s="37" t="s">
@@ -13221,7 +13709,7 @@
         <v>157</v>
       </c>
       <c r="F33" s="108" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G33" s="108"/>
       <c r="H33" s="37" t="s">
@@ -13245,23 +13733,23 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H8">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H8" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I33" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L33" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30:H33 H9:H17 H23:H28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30:H33 H9:H17 H23:H28" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"Caption,Groupbox,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N29:O29 N18:O22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N29:O29 N18:O22" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29 H18:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29 H18:H22" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>"Caption,Textbox,DateTimePicker, SpinNumeric,Table, Cell,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid,GridColumn,Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13272,7 +13760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13316,7 +13804,7 @@
       </c>
       <c r="F1" s="86" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2023</v>
+        <v>OOF2113</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>5</v>
@@ -13342,7 +13830,7 @@
       <c r="C2" s="29"/>
       <c r="D2" s="86" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>49</v>
@@ -13562,13 +14050,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:L14 I5:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:L14 I5:I13" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Format,Require,Max Length,Range,Not In List"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13584,7 +14072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13613,7 +14101,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="102"/>
@@ -13630,7 +14118,7 @@
       </c>
       <c r="G1" s="83" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2023</v>
+        <v>OOF2113</v>
       </c>
       <c r="H1" s="84" t="s">
         <v>5</v>
@@ -13650,7 +14138,7 @@
       <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="211"/>
+      <c r="A2" s="214"/>
       <c r="B2" s="103"/>
       <c r="C2" s="117"/>
       <c r="D2" s="30" t="s">
@@ -13658,7 +14146,7 @@
       </c>
       <c r="E2" s="86" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="F2" s="84" t="s">
         <v>49</v>
@@ -13703,15 +14191,15 @@
       <c r="F4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="184" t="s">
+      <c r="G4" s="174" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184" t="s">
+      <c r="H4" s="174"/>
+      <c r="I4" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
     </row>
     <row r="5" spans="1:13" s="33" customFormat="1" ht="11.25">
       <c r="A5" s="32">
@@ -13724,9 +14212,9 @@
       <c r="F5" s="31"/>
       <c r="G5" s="208"/>
       <c r="H5" s="209"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="214"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="212"/>
     </row>
     <row r="6" spans="1:13" s="33" customFormat="1" ht="11.25">
       <c r="A6" s="32">
@@ -13739,9 +14227,9 @@
       <c r="F6" s="31"/>
       <c r="G6" s="208"/>
       <c r="H6" s="209"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="213"/>
-      <c r="K6" s="214"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="212"/>
     </row>
     <row r="7" spans="1:13" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="32">
@@ -13754,9 +14242,9 @@
       <c r="F7" s="31"/>
       <c r="G7" s="208"/>
       <c r="H7" s="209"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="212"/>
     </row>
     <row r="8" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="32">
@@ -13769,9 +14257,9 @@
       <c r="F8" s="31"/>
       <c r="G8" s="208"/>
       <c r="H8" s="209"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="214"/>
+      <c r="I8" s="210"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="212"/>
     </row>
     <row r="9" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -13784,9 +14272,9 @@
       <c r="F9" s="31"/>
       <c r="G9" s="208"/>
       <c r="H9" s="209"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="214"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="212"/>
     </row>
     <row r="10" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -13799,9 +14287,9 @@
       <c r="F10" s="31"/>
       <c r="G10" s="208"/>
       <c r="H10" s="209"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="214"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="212"/>
     </row>
     <row r="11" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -13814,9 +14302,9 @@
       <c r="F11" s="31"/>
       <c r="G11" s="208"/>
       <c r="H11" s="209"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="214"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="212"/>
     </row>
     <row r="12" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -13829,9 +14317,9 @@
       <c r="F12" s="31"/>
       <c r="G12" s="208"/>
       <c r="H12" s="209"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="214"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="212"/>
     </row>
     <row r="13" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -13844,9 +14332,9 @@
       <c r="F13" s="31"/>
       <c r="G13" s="208"/>
       <c r="H13" s="209"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="214"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="212"/>
     </row>
     <row r="14" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -13859,29 +14347,13 @@
       <c r="F14" s="31"/>
       <c r="G14" s="208"/>
       <c r="H14" s="209"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="213"/>
-      <c r="K14" s="214"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="212"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
@@ -13889,9 +14361,25 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Text,Number,Boolean,Datatime,Object,Structure"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13903,11 +14391,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R1048239"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:K9"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13933,27 +14421,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="218" t="str">
+      <c r="G1" s="230" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="218"/>
+      <c r="H1" s="230"/>
       <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="48" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2023</v>
+        <v>OOF2113</v>
       </c>
       <c r="K1" s="26" t="s">
         <v>5</v>
@@ -13965,29 +14453,29 @@
       <c r="M1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="215" t="str">
+      <c r="N1" s="227" t="str">
         <f>'Update History'!J1</f>
         <v>Hoàng vũ</v>
       </c>
-      <c r="O1" s="216"/>
-      <c r="P1" s="217"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="229"/>
       <c r="Q1" s="47"/>
       <c r="R1" s="47"/>
     </row>
     <row r="2" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="218" t="str">
+      <c r="G2" s="230" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
-      </c>
-      <c r="H2" s="218"/>
+        <v>ASOFT-OO</v>
+      </c>
+      <c r="H2" s="230"/>
       <c r="I2" s="26" t="s">
         <v>49</v>
       </c>
@@ -14005,12 +14493,12 @@
       <c r="M2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="215">
+      <c r="N2" s="227">
         <f>'Update History'!J2</f>
         <v>43025</v>
       </c>
-      <c r="O2" s="216"/>
-      <c r="P2" s="217"/>
+      <c r="O2" s="228"/>
+      <c r="P2" s="229"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
     </row>
@@ -14065,7 +14553,7 @@
       </c>
       <c r="C5" s="104"/>
       <c r="D5" s="112" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E5" s="112" t="s">
         <v>166</v>
@@ -14076,24 +14564,24 @@
       <c r="G5" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="219" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="221"/>
+      <c r="H5" s="215" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="217"/>
       <c r="L5" s="134" t="s">
         <v>131</v>
       </c>
       <c r="M5" s="134" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N5" s="114"/>
       <c r="O5" s="114" t="s">
         <v>167</v>
       </c>
       <c r="P5" s="68" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="115" customFormat="1" ht="75.75" customHeight="1">
@@ -14103,7 +14591,7 @@
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="133" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E6" s="112" t="s">
         <v>166</v>
@@ -14114,24 +14602,24 @@
       <c r="G6" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="219" t="s">
-        <v>301</v>
-      </c>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="221"/>
+      <c r="H6" s="215" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="217"/>
       <c r="L6" s="134" t="s">
         <v>131</v>
       </c>
       <c r="M6" s="134" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N6" s="132"/>
       <c r="O6" s="132" t="s">
         <v>167</v>
       </c>
       <c r="P6" s="68" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="115" customFormat="1" ht="22.5">
@@ -14141,7 +14629,7 @@
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="132" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E7" s="112" t="s">
         <v>166</v>
@@ -14150,26 +14638,26 @@
         <v>55</v>
       </c>
       <c r="G7" s="113" t="s">
-        <v>240</v>
-      </c>
-      <c r="H7" s="219" t="s">
-        <v>302</v>
-      </c>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="221"/>
+        <v>236</v>
+      </c>
+      <c r="H7" s="215" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="217"/>
       <c r="L7" s="134" t="s">
         <v>131</v>
       </c>
       <c r="M7" s="134" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N7" s="132"/>
       <c r="O7" s="132" t="s">
         <v>167</v>
       </c>
       <c r="P7" s="68" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="115" customFormat="1" ht="45">
@@ -14179,7 +14667,7 @@
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="133" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E8" s="112" t="s">
         <v>166</v>
@@ -14188,26 +14676,26 @@
         <v>55</v>
       </c>
       <c r="G8" s="113" t="s">
-        <v>241</v>
-      </c>
-      <c r="H8" s="219" t="s">
-        <v>303</v>
-      </c>
-      <c r="I8" s="220"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="221"/>
+        <v>237</v>
+      </c>
+      <c r="H8" s="215" t="s">
+        <v>295</v>
+      </c>
+      <c r="I8" s="216"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="217"/>
       <c r="L8" s="134" t="s">
         <v>131</v>
       </c>
       <c r="M8" s="134" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N8" s="132"/>
       <c r="O8" s="132" t="s">
         <v>167</v>
       </c>
       <c r="P8" s="68" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="115" customFormat="1" ht="78.75">
@@ -14217,7 +14705,7 @@
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="133" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E9" s="112" t="s">
         <v>166</v>
@@ -14226,29 +14714,29 @@
         <v>55</v>
       </c>
       <c r="G9" s="113" t="s">
-        <v>242</v>
-      </c>
-      <c r="H9" s="228" t="s">
-        <v>304</v>
-      </c>
-      <c r="I9" s="229"/>
-      <c r="J9" s="229"/>
-      <c r="K9" s="230"/>
+        <v>238</v>
+      </c>
+      <c r="H9" s="224" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" s="225"/>
+      <c r="J9" s="225"/>
+      <c r="K9" s="226"/>
       <c r="L9" s="134" t="s">
         <v>131</v>
       </c>
       <c r="M9" s="134" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N9" s="132"/>
       <c r="O9" s="132" t="s">
         <v>167</v>
       </c>
       <c r="P9" s="68" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="115" customFormat="1" ht="131.25" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="115" customFormat="1" ht="65.25" customHeight="1">
       <c r="A10" s="131"/>
       <c r="B10" s="104" t="s">
         <v>156</v>
@@ -14259,30 +14747,30 @@
         <v>166</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G10" s="113" t="s">
-        <v>246</v>
-      </c>
-      <c r="H10" s="219" t="s">
-        <v>306</v>
-      </c>
-      <c r="I10" s="220"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="221"/>
+        <v>242</v>
+      </c>
+      <c r="H10" s="184" t="s">
+        <v>303</v>
+      </c>
+      <c r="I10" s="185"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="186"/>
       <c r="L10" s="133" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M10" s="133" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N10" s="132"/>
       <c r="O10" s="132"/>
       <c r="P10" s="132" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="115" customFormat="1" ht="97.5" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="115" customFormat="1" ht="82.5" customHeight="1">
       <c r="A11" s="131"/>
       <c r="B11" s="104" t="s">
         <v>156</v>
@@ -14290,34 +14778,34 @@
       <c r="C11" s="54"/>
       <c r="D11" s="112"/>
       <c r="E11" s="135" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F11" s="135" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G11" s="113" t="s">
-        <v>251</v>
-      </c>
-      <c r="H11" s="225" t="s">
-        <v>307</v>
-      </c>
-      <c r="I11" s="226"/>
-      <c r="J11" s="226"/>
-      <c r="K11" s="227"/>
+        <v>247</v>
+      </c>
+      <c r="H11" s="239" t="s">
+        <v>304</v>
+      </c>
+      <c r="I11" s="240"/>
+      <c r="J11" s="240"/>
+      <c r="K11" s="241"/>
       <c r="L11" s="138" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M11" s="138" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N11" s="68" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O11" s="137" t="s">
         <v>167</v>
       </c>
       <c r="P11" s="112" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="115" customFormat="1" ht="57.75" customHeight="1">
@@ -14328,34 +14816,34 @@
       <c r="C12" s="54"/>
       <c r="D12" s="129"/>
       <c r="E12" s="135" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F12" s="135" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="113" t="s">
-        <v>258</v>
-      </c>
-      <c r="H12" s="225" t="s">
-        <v>309</v>
-      </c>
-      <c r="I12" s="226"/>
-      <c r="J12" s="226"/>
-      <c r="K12" s="227"/>
+        <v>254</v>
+      </c>
+      <c r="H12" s="221" t="s">
+        <v>306</v>
+      </c>
+      <c r="I12" s="222"/>
+      <c r="J12" s="222"/>
+      <c r="K12" s="223"/>
       <c r="L12" s="136" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M12" s="136" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N12" s="68" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O12" s="137" t="s">
         <v>167</v>
       </c>
       <c r="P12" s="129" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="115" customFormat="1" ht="57.75" customHeight="1">
@@ -14366,37 +14854,37 @@
       <c r="C13" s="54"/>
       <c r="D13" s="112"/>
       <c r="E13" s="135" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F13" s="135" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="113" t="s">
-        <v>259</v>
-      </c>
-      <c r="H13" s="225" t="s">
-        <v>310</v>
-      </c>
-      <c r="I13" s="226"/>
-      <c r="J13" s="226"/>
-      <c r="K13" s="227"/>
+        <v>255</v>
+      </c>
+      <c r="H13" s="221" t="s">
+        <v>307</v>
+      </c>
+      <c r="I13" s="222"/>
+      <c r="J13" s="222"/>
+      <c r="K13" s="223"/>
       <c r="L13" s="136" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M13" s="136" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N13" s="68" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O13" s="137" t="s">
         <v>167</v>
       </c>
       <c r="P13" s="129" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="115" customFormat="1" ht="57.75" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="115" customFormat="1" ht="48.75" customHeight="1">
       <c r="A14" s="131"/>
       <c r="B14" s="104" t="s">
         <v>156</v>
@@ -14404,28 +14892,28 @@
       <c r="C14" s="54"/>
       <c r="D14" s="112"/>
       <c r="E14" s="135" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F14" s="135" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="113" t="s">
-        <v>255</v>
-      </c>
-      <c r="H14" s="222" t="s">
-        <v>311</v>
-      </c>
-      <c r="I14" s="223"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="224"/>
+        <v>251</v>
+      </c>
+      <c r="H14" s="218" t="s">
+        <v>308</v>
+      </c>
+      <c r="I14" s="219"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="220"/>
       <c r="L14" s="140" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M14" s="140" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N14" s="68" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O14" s="139" t="s">
         <v>167</v>
@@ -14438,6 +14926,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H14:K14"/>
@@ -14449,21 +14942,16 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="N1048239:N1048576 N5:N10"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="N1048239:N1048576 N5:N10" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O14" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14479,11 +14967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81:N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -14499,10 +14987,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -14515,7 +15003,7 @@
       </c>
       <c r="F1" s="34" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2023</v>
+        <v>OOF2113</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -14533,14 +15021,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
@@ -14594,7 +15082,7 @@
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
@@ -14713,7 +15201,7 @@
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -14726,7 +15214,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -14739,7 +15227,7 @@
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="40"/>
       <c r="C18" s="40" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -14752,7 +15240,7 @@
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="B19" s="40"/>
       <c r="C19" s="40" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -14789,7 +15277,7 @@
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="B22" s="40"/>
       <c r="C22" s="40" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -14826,7 +15314,7 @@
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="B25" s="67"/>
       <c r="C25" s="40" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -14878,7 +15366,7 @@
       <c r="A29" s="63"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
@@ -14892,7 +15380,7 @@
       <c r="A30" s="63"/>
       <c r="B30" s="40"/>
       <c r="C30" s="70" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
@@ -14906,7 +15394,7 @@
       <c r="A31" s="63"/>
       <c r="B31" s="40"/>
       <c r="C31" s="70" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
@@ -14920,7 +15408,7 @@
       <c r="A32" s="63"/>
       <c r="B32" s="40"/>
       <c r="C32" s="70" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -14934,7 +15422,7 @@
       <c r="A33" s="63"/>
       <c r="B33" s="40"/>
       <c r="C33" s="70" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
@@ -15332,7 +15820,7 @@
       <c r="A66" s="63"/>
       <c r="B66" s="40"/>
       <c r="C66" s="234" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D66" s="234"/>
       <c r="E66" s="234"/>
@@ -15346,7 +15834,7 @@
       <c r="A67" s="63"/>
       <c r="B67" s="40"/>
       <c r="C67" s="141" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
@@ -15372,7 +15860,7 @@
       <c r="A69" s="63"/>
       <c r="B69" s="40"/>
       <c r="C69" s="231" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="D69" s="231"/>
       <c r="E69" s="231"/>
@@ -15422,7 +15910,7 @@
       <c r="A72" s="63"/>
       <c r="B72" s="40"/>
       <c r="C72" s="231" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D72" s="231"/>
       <c r="E72" s="231"/>
@@ -15472,7 +15960,7 @@
       <c r="A75" s="63"/>
       <c r="B75" s="40"/>
       <c r="C75" s="231" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="D75" s="231"/>
       <c r="E75" s="231"/>
@@ -15522,7 +16010,7 @@
       <c r="A78" s="63"/>
       <c r="B78" s="40"/>
       <c r="C78" s="231" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D78" s="231"/>
       <c r="E78" s="231"/>
@@ -15572,7 +16060,7 @@
       <c r="A81" s="63"/>
       <c r="B81" s="40"/>
       <c r="C81" s="231" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D81" s="231"/>
       <c r="E81" s="231"/>
@@ -15733,7 +16221,7 @@
     <row r="93" spans="1:14" ht="12" customHeight="1">
       <c r="B93" s="40"/>
       <c r="C93" s="70" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D93" s="40"/>
       <c r="E93" s="40"/>
@@ -15769,7 +16257,7 @@
     <row r="96" spans="1:14" ht="12" customHeight="1">
       <c r="B96" s="67"/>
       <c r="C96" s="70" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
@@ -16363,7 +16851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -16383,10 +16871,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -16399,7 +16887,7 @@
       </c>
       <c r="F1" s="34" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2023</v>
+        <v>OOF2113</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -16417,14 +16905,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
